--- a/src/Files/WorkOrders/220B FORMULATED 6-22-16.xlsx
+++ b/src/Files/WorkOrders/220B FORMULATED 6-22-16.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\eclipse-workspace\BURIN_V2\src\Files\WorkOrders\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="0" windowWidth="6345" windowHeight="10755"/>
+    <workbookView xWindow="2520" yWindow="0" windowWidth="6348" windowHeight="10758"/>
   </bookViews>
   <sheets>
     <sheet name="220-B WO" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'220-B WO'!$A$1:$K$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'220-B WO'!$A$1:$K$37</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="142">
   <si>
     <t>BEAHMDESIGNS</t>
   </si>
@@ -437,6 +442,12 @@
   </si>
   <si>
     <t>DO NOT KIT - HOA'S FLOOR STOCK</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>END</t>
   </si>
 </sst>
 </file>
@@ -905,7 +916,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,7 +951,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1152,29 +1163,29 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.71875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="11" max="11" width="16.71875" customWidth="1"/>
+    <col min="12" max="13" width="10.71875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A1" s="61" t="s">
         <v>125</v>
       </c>
@@ -1202,7 +1213,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.5">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1241,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.3" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="60"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1256,7 +1267,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A4" s="21"/>
       <c r="C4" s="68">
         <v>3</v>
@@ -1272,7 +1283,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A5" s="21"/>
       <c r="C5" s="69" t="s">
         <v>138</v>
@@ -1288,7 +1299,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:18" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
         <v>137</v>
       </c>
@@ -1330,45 +1341,27 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55">
+    <row r="7" spans="1:18" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="55">
         <v>5001</v>
-      </c>
-      <c r="B7" s="55">
-        <v>1</v>
-      </c>
-      <c r="C7" s="55">
-        <f>B7*C4</f>
-        <v>3</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7" s="58">
-        <v>33.729999999999997</v>
-      </c>
-      <c r="M7" s="58">
-        <f>L7*C7</f>
-        <v>101.19</v>
-      </c>
-      <c r="N7" s="31"/>
-    </row>
-    <row r="8" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55">
-        <v>5003</v>
       </c>
       <c r="B8" s="55">
         <v>1</v>
@@ -1380,31 +1373,31 @@
       <c r="D8" s="26"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="26" t="s">
-        <v>109</v>
+      <c r="G8" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="26" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>77</v>
+        <v>128</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="L8" s="58">
-        <v>67.540000000000006</v>
+        <v>33.729999999999997</v>
       </c>
       <c r="M8" s="58">
-        <f t="shared" ref="M8:M36" si="0">L8*C8</f>
-        <v>202.62</v>
+        <f>L8*C8</f>
+        <v>101.19</v>
       </c>
       <c r="N8" s="31"/>
     </row>
-    <row r="9" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="55">
-        <v>5006</v>
+        <v>5003</v>
       </c>
       <c r="B9" s="55">
         <v>1</v>
@@ -1416,31 +1409,31 @@
       <c r="D9" s="26"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="30">
-        <v>110857</v>
+      <c r="G9" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>32</v>
+      <c r="I9" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="L9" s="58">
-        <v>5.58</v>
+        <v>67.540000000000006</v>
       </c>
       <c r="M9" s="58">
-        <f t="shared" si="0"/>
-        <v>16.740000000000002</v>
+        <f t="shared" ref="M9:M37" si="0">L9*C9</f>
+        <v>202.62</v>
       </c>
       <c r="N9" s="31"/>
     </row>
-    <row r="10" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="55">
-        <v>5009</v>
+        <v>5006</v>
       </c>
       <c r="B10" s="55">
         <v>1</v>
@@ -1452,63 +1445,65 @@
       <c r="D10" s="26"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="26">
-        <v>120357</v>
+      <c r="G10" s="30">
+        <v>110857</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="33" t="s">
+      <c r="I10" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="30" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="58">
-        <v>3.7</v>
+        <v>5.58</v>
       </c>
       <c r="M10" s="58">
         <f t="shared" si="0"/>
-        <v>11.100000000000001</v>
+        <v>16.740000000000002</v>
       </c>
       <c r="N10" s="31"/>
     </row>
-    <row r="11" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="55">
-        <v>5014</v>
+        <v>5009</v>
       </c>
       <c r="B11" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="55">
         <f>B11*C4</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="26">
-        <v>131346</v>
+        <v>120357</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="26" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J11" s="26"/>
       <c r="K11" s="33" t="s">
         <v>32</v>
       </c>
       <c r="L11" s="58">
-        <v>16.670000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="M11" s="58">
-        <f>L11*C11</f>
-        <v>100.02000000000001</v>
+        <f t="shared" si="0"/>
+        <v>11.100000000000001</v>
       </c>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="55">
-        <v>5018</v>
+        <v>5014</v>
       </c>
       <c r="B12" s="55">
         <v>2</v>
@@ -1520,65 +1515,65 @@
       <c r="D12" s="26"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="30" t="s">
-        <v>49</v>
+      <c r="G12" s="26">
+        <v>131346</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="26" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J12" s="26"/>
       <c r="K12" s="33" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="L12" s="58">
-        <v>23.34</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="M12" s="58">
-        <f t="shared" si="0"/>
-        <v>140.04</v>
+        <f>L12*C12</f>
+        <v>100.02000000000001</v>
       </c>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="55">
-        <v>5019</v>
+        <v>5018</v>
       </c>
       <c r="B13" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="55">
         <f>B13*C4</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
-      <c r="G13" s="26" t="s">
-        <v>41</v>
+      <c r="G13" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="34" t="s">
-        <v>42</v>
+      <c r="I13" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="33" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="L13" s="58">
-        <v>4.5199999999999996</v>
+        <v>23.34</v>
       </c>
       <c r="M13" s="58">
         <f t="shared" si="0"/>
-        <v>13.559999999999999</v>
+        <v>140.04</v>
       </c>
       <c r="N13" s="31"/>
     </row>
-    <row r="14" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="55">
-        <v>5021</v>
-      </c>
-      <c r="B14" s="56">
+        <v>5019</v>
+      </c>
+      <c r="B14" s="55">
         <v>1</v>
       </c>
       <c r="C14" s="55">
@@ -1586,35 +1581,33 @@
         <v>3</v>
       </c>
       <c r="D14" s="26"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="26" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>11</v>
+      <c r="I14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="L14" s="58">
-        <v>25.47</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="M14" s="58">
         <f t="shared" si="0"/>
-        <v>76.41</v>
+        <v>13.559999999999999</v>
       </c>
       <c r="N14" s="31"/>
     </row>
-    <row r="15" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="55">
-        <v>5022</v>
-      </c>
-      <c r="B15" s="55">
+        <v>5021</v>
+      </c>
+      <c r="B15" s="56">
         <v>1</v>
       </c>
       <c r="C15" s="55">
@@ -1622,31 +1615,33 @@
         <v>3</v>
       </c>
       <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="33" t="s">
-        <v>47</v>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>11</v>
       </c>
       <c r="L15" s="58">
-        <v>6.23</v>
+        <v>25.47</v>
       </c>
       <c r="M15" s="58">
         <f t="shared" si="0"/>
-        <v>18.690000000000001</v>
+        <v>76.41</v>
       </c>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="55">
-        <v>5028</v>
+        <v>5022</v>
       </c>
       <c r="B16" s="55">
         <v>1</v>
@@ -1658,31 +1653,29 @@
       <c r="D16" s="26"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="26" t="s">
-        <v>106</v>
+      <c r="G16" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="H16" s="36"/>
-      <c r="I16" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>108</v>
-      </c>
+      <c r="I16" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="30"/>
       <c r="K16" s="33" t="s">
         <v>47</v>
       </c>
       <c r="L16" s="58">
-        <v>7.77</v>
+        <v>6.23</v>
       </c>
       <c r="M16" s="58">
         <f t="shared" si="0"/>
-        <v>23.31</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="N16" s="31"/>
     </row>
-    <row r="17" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="55">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="B17" s="55">
         <v>1</v>
@@ -1695,30 +1688,30 @@
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="33" t="s">
-        <v>120</v>
+        <v>106</v>
+      </c>
+      <c r="H17" s="36"/>
+      <c r="I17" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>121</v>
+        <v>108</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>47</v>
       </c>
       <c r="L17" s="58">
-        <v>294.3</v>
+        <v>7.77</v>
       </c>
       <c r="M17" s="58">
         <f t="shared" si="0"/>
-        <v>882.90000000000009</v>
+        <v>23.31</v>
       </c>
       <c r="N17" s="31"/>
     </row>
-    <row r="18" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="55">
-        <v>5067</v>
+        <v>5029</v>
       </c>
       <c r="B18" s="55">
         <v>1</v>
@@ -1731,206 +1724,206 @@
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="26" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="33" t="s">
-        <v>32</v>
+      <c r="I18" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>121</v>
       </c>
       <c r="L18" s="58">
-        <v>12.9</v>
+        <v>294.3</v>
       </c>
       <c r="M18" s="58">
         <f t="shared" si="0"/>
-        <v>38.700000000000003</v>
+        <v>882.90000000000009</v>
       </c>
       <c r="N18" s="31"/>
     </row>
-    <row r="19" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="55">
-        <v>5071</v>
+        <v>5067</v>
       </c>
       <c r="B19" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="55">
         <f>B19*C4</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="34" t="s">
-        <v>58</v>
+      <c r="G19" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>57</v>
+      <c r="I19" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="L19" s="58">
-        <v>19</v>
+        <v>12.9</v>
       </c>
       <c r="M19" s="58">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="N19" s="31"/>
     </row>
-    <row r="20" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="55">
-        <v>5200</v>
+        <v>5071</v>
       </c>
       <c r="B20" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="55">
         <f>B20*C4</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="26" t="s">
-        <v>78</v>
+      <c r="G20" s="34" t="s">
+        <v>58</v>
       </c>
       <c r="H20" s="29"/>
-      <c r="I20" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="33" t="s">
-        <v>82</v>
+      <c r="I20" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>57</v>
       </c>
       <c r="L20" s="58">
-        <v>24.52</v>
+        <v>19</v>
       </c>
       <c r="M20" s="58">
         <f t="shared" si="0"/>
-        <v>73.56</v>
+        <v>114</v>
       </c>
       <c r="N20" s="31"/>
     </row>
-    <row r="21" spans="1:14" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57">
-        <v>5300</v>
-      </c>
-      <c r="B21" s="57">
-        <v>4</v>
-      </c>
-      <c r="C21" s="57">
+    <row r="21" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="55">
+        <v>5200</v>
+      </c>
+      <c r="B21" s="55">
+        <v>1</v>
+      </c>
+      <c r="C21" s="55">
         <f>B21*C4</f>
-        <v>12</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="59">
-        <v>3.18</v>
+        <v>3</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="26"/>
+      <c r="K21" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="58">
+        <v>24.52</v>
       </c>
       <c r="M21" s="58">
         <f t="shared" si="0"/>
-        <v>38.160000000000004</v>
-      </c>
-      <c r="N21" s="42"/>
-    </row>
-    <row r="22" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55">
-        <v>5302</v>
-      </c>
-      <c r="B22" s="55">
-        <v>2</v>
-      </c>
-      <c r="C22" s="55">
+        <v>73.56</v>
+      </c>
+      <c r="N21" s="31"/>
+    </row>
+    <row r="22" spans="1:14" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="57">
+        <v>5300</v>
+      </c>
+      <c r="B22" s="57">
+        <v>4</v>
+      </c>
+      <c r="C22" s="57">
         <f>B22*C4</f>
-        <v>6</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="58">
-        <v>16.899999999999999</v>
+      <c r="L22" s="59">
+        <v>3.18</v>
       </c>
       <c r="M22" s="58">
         <f t="shared" si="0"/>
-        <v>101.39999999999999</v>
-      </c>
-      <c r="N22" s="31"/>
-    </row>
-    <row r="23" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38.160000000000004</v>
+      </c>
+      <c r="N22" s="42"/>
+    </row>
+    <row r="23" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="55">
-        <v>5303</v>
+        <v>5302</v>
       </c>
       <c r="B23" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="55">
         <f>B23*C4</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="K23" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="26" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="58">
-        <v>8.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="M23" s="58">
         <f t="shared" si="0"/>
-        <v>26.700000000000003</v>
+        <v>101.39999999999999</v>
       </c>
       <c r="N23" s="31"/>
     </row>
-    <row r="24" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="55">
-        <v>5304</v>
+        <v>5303</v>
       </c>
       <c r="B24" s="55">
         <v>1</v>
@@ -1942,8 +1935,8 @@
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="34" t="s">
-        <v>98</v>
+      <c r="G24" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="33" t="s">
@@ -1956,89 +1949,89 @@
         <v>11</v>
       </c>
       <c r="L24" s="58">
-        <v>6.36</v>
+        <v>8.9</v>
       </c>
       <c r="M24" s="58">
         <f t="shared" si="0"/>
-        <v>19.080000000000002</v>
+        <v>26.700000000000003</v>
       </c>
       <c r="N24" s="31"/>
     </row>
-    <row r="25" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="55">
-        <v>5312</v>
+        <v>5304</v>
       </c>
       <c r="B25" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="55">
         <f>B25*C4</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="26" t="s">
-        <v>65</v>
+      <c r="G25" s="34" t="s">
+        <v>98</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="34" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="58">
-        <v>0.72</v>
+        <v>6.36</v>
       </c>
       <c r="M25" s="58">
         <f t="shared" si="0"/>
-        <v>4.32</v>
+        <v>19.080000000000002</v>
       </c>
       <c r="N25" s="31"/>
     </row>
-    <row r="26" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="55">
-        <v>5333</v>
+        <v>5312</v>
       </c>
       <c r="B26" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="55">
         <f>B26*C4</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
       <c r="G26" s="26" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="30" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="58">
-        <v>16.16</v>
+        <v>0.72</v>
       </c>
       <c r="M26" s="58">
         <f t="shared" si="0"/>
-        <v>48.480000000000004</v>
+        <v>4.32</v>
       </c>
       <c r="N26" s="31"/>
     </row>
-    <row r="27" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="55">
-        <v>5334</v>
+        <v>5333</v>
       </c>
       <c r="B27" s="55">
         <v>1</v>
@@ -2051,134 +2044,136 @@
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="26" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="33" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="K27" s="30" t="s">
+      <c r="K27" s="33" t="s">
         <v>11</v>
       </c>
       <c r="L27" s="58">
-        <v>5.25</v>
+        <v>16.16</v>
       </c>
       <c r="M27" s="58">
         <f t="shared" si="0"/>
-        <v>15.75</v>
+        <v>48.480000000000004</v>
       </c>
       <c r="N27" s="31"/>
     </row>
-    <row r="28" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="55">
-        <v>5347</v>
-      </c>
-      <c r="B28" s="56">
-        <v>2</v>
+        <v>5334</v>
+      </c>
+      <c r="B28" s="55">
+        <v>1</v>
       </c>
       <c r="C28" s="55">
         <f>B28*C4</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D28" s="26"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="30" t="s">
-        <v>112</v>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>55</v>
+      <c r="I28" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L28" s="58">
-        <v>159.19999999999999</v>
+        <v>5.25</v>
       </c>
       <c r="M28" s="58">
         <f t="shared" si="0"/>
-        <v>955.19999999999993</v>
+        <v>15.75</v>
       </c>
       <c r="N28" s="31"/>
     </row>
-    <row r="29" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="55">
-        <v>6047</v>
-      </c>
-      <c r="B29" s="55">
-        <v>1</v>
+        <v>5347</v>
+      </c>
+      <c r="B29" s="56">
+        <v>2</v>
       </c>
       <c r="C29" s="55">
         <f>B29*C4</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="30">
-        <v>6047</v>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="30" t="s">
+        <v>112</v>
       </c>
       <c r="H29" s="29"/>
-      <c r="I29" s="30" t="s">
-        <v>116</v>
+      <c r="I29" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="30"/>
+        <v>55</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>56</v>
+      </c>
       <c r="L29" s="58">
-        <v>12.22</v>
+        <v>159.19999999999999</v>
       </c>
       <c r="M29" s="58">
         <f t="shared" si="0"/>
-        <v>36.660000000000004</v>
+        <v>955.19999999999993</v>
       </c>
       <c r="N29" s="31"/>
     </row>
-    <row r="30" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="55">
-        <v>6065</v>
+        <v>6047</v>
       </c>
       <c r="B30" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="55">
         <f>B30*C4</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="G30" s="30">
-        <v>6065</v>
-      </c>
-      <c r="H30" s="36"/>
+        <v>6047</v>
+      </c>
+      <c r="H30" s="29"/>
       <c r="I30" s="30" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="J30" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="46"/>
+      <c r="K30" s="30"/>
       <c r="L30" s="58">
-        <v>8.23</v>
+        <v>12.22</v>
       </c>
       <c r="M30" s="58">
         <f t="shared" si="0"/>
-        <v>49.38</v>
+        <v>36.660000000000004</v>
       </c>
       <c r="N30" s="31"/>
     </row>
-    <row r="31" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="55">
-        <v>6066</v>
+        <v>6065</v>
       </c>
       <c r="B31" s="55">
         <v>2</v>
@@ -2190,29 +2185,29 @@
       <c r="D31" s="26"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="26">
-        <v>6066</v>
+      <c r="G31" s="30">
+        <v>6065</v>
       </c>
       <c r="H31" s="36"/>
-      <c r="I31" s="33" t="s">
-        <v>117</v>
+      <c r="I31" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="J31" s="30" t="s">
         <v>7</v>
       </c>
       <c r="K31" s="46"/>
       <c r="L31" s="58">
-        <v>4.0599999999999996</v>
+        <v>8.23</v>
       </c>
       <c r="M31" s="58">
         <f t="shared" si="0"/>
-        <v>24.36</v>
+        <v>49.38</v>
       </c>
       <c r="N31" s="31"/>
     </row>
-    <row r="32" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="55">
-        <v>6434</v>
+        <v>6066</v>
       </c>
       <c r="B32" s="55">
         <v>2</v>
@@ -2224,29 +2219,29 @@
       <c r="D32" s="26"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
-      <c r="G32" s="30">
-        <v>6434</v>
-      </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30" t="s">
-        <v>79</v>
+      <c r="G32" s="26">
+        <v>6066</v>
+      </c>
+      <c r="H32" s="36"/>
+      <c r="I32" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="K32" s="30"/>
+        <v>7</v>
+      </c>
+      <c r="K32" s="46"/>
       <c r="L32" s="58">
-        <v>13.85</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="M32" s="58">
         <f t="shared" si="0"/>
-        <v>83.1</v>
+        <v>24.36</v>
       </c>
       <c r="N32" s="31"/>
     </row>
-    <row r="33" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="55">
-        <v>6451</v>
+        <v>6434</v>
       </c>
       <c r="B33" s="55">
         <v>2</v>
@@ -2259,62 +2254,62 @@
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="30">
-        <v>6451</v>
+        <v>6434</v>
       </c>
       <c r="H33" s="29"/>
-      <c r="I33" s="26" t="s">
-        <v>118</v>
+      <c r="I33" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="J33" s="30" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="K33" s="30"/>
       <c r="L33" s="58">
-        <v>23.6</v>
+        <v>13.85</v>
       </c>
       <c r="M33" s="58">
         <f t="shared" si="0"/>
-        <v>141.60000000000002</v>
+        <v>83.1</v>
       </c>
       <c r="N33" s="31"/>
     </row>
-    <row r="34" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="55">
-        <v>6545</v>
+        <v>6451</v>
       </c>
       <c r="B34" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="55">
         <f>B34*C4</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="30">
-        <v>6588</v>
-      </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="30" t="s">
-        <v>114</v>
+        <v>6451</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="J34" s="30" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="K34" s="30"/>
       <c r="L34" s="58">
-        <v>35.409999999999997</v>
+        <v>23.6</v>
       </c>
       <c r="M34" s="58">
         <f t="shared" si="0"/>
-        <v>106.22999999999999</v>
+        <v>141.60000000000002</v>
       </c>
       <c r="N34" s="31"/>
     </row>
-    <row r="35" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="55">
-        <v>6568</v>
+        <v>6545</v>
       </c>
       <c r="B35" s="55">
         <v>1</v>
@@ -2327,28 +2322,28 @@
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="30">
-        <v>6568</v>
-      </c>
-      <c r="H35" s="29"/>
+        <v>6588</v>
+      </c>
+      <c r="H35" s="36"/>
       <c r="I35" s="30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J35" s="30" t="s">
         <v>62</v>
       </c>
       <c r="K35" s="30"/>
       <c r="L35" s="58">
-        <v>27.35</v>
+        <v>35.409999999999997</v>
       </c>
       <c r="M35" s="58">
         <f t="shared" si="0"/>
-        <v>82.050000000000011</v>
+        <v>106.22999999999999</v>
       </c>
       <c r="N35" s="31"/>
     </row>
-    <row r="36" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="55">
-        <v>6571</v>
+        <v>6568</v>
       </c>
       <c r="B36" s="55">
         <v>1</v>
@@ -2361,165 +2356,167 @@
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="30">
-        <v>6571</v>
+        <v>6568</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J36" s="30" t="s">
         <v>62</v>
       </c>
       <c r="K36" s="30"/>
       <c r="L36" s="58">
-        <v>14.4</v>
+        <v>27.35</v>
       </c>
       <c r="M36" s="58">
         <f t="shared" si="0"/>
+        <v>82.050000000000011</v>
+      </c>
+      <c r="N36" s="31"/>
+    </row>
+    <row r="37" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="55">
+        <v>6571</v>
+      </c>
+      <c r="B37" s="55">
+        <v>1</v>
+      </c>
+      <c r="C37" s="55">
+        <f>B37*C4</f>
+        <v>3</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="30">
+        <v>6571</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37" s="30"/>
+      <c r="L37" s="58">
+        <v>14.4</v>
+      </c>
+      <c r="M37" s="58">
+        <f t="shared" si="0"/>
         <v>43.2</v>
       </c>
-      <c r="N36" s="31"/>
-    </row>
-    <row r="37" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="31"/>
       <c r="N37" s="31"/>
     </row>
-    <row r="38" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="L38" s="51"/>
-    </row>
-    <row r="39" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="70" t="s">
+    <row r="38" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+    </row>
+    <row r="39" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="47"/>
+      <c r="L39" s="51"/>
+    </row>
+    <row r="40" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="54"/>
-    </row>
-    <row r="40" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="55">
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="54"/>
+    </row>
+    <row r="41" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="55">
         <v>5012</v>
       </c>
-      <c r="B40" s="55">
-        <v>1</v>
-      </c>
-      <c r="C40" s="55">
-        <f>B40*C4</f>
-        <v>3</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="30">
-        <v>2860124541</v>
-      </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L40" s="58">
-        <v>10.06</v>
-      </c>
-      <c r="M40" s="58">
-        <f t="shared" ref="M40:M62" si="1">L40*C40</f>
-        <v>30.18</v>
-      </c>
-      <c r="N40" s="31"/>
-    </row>
-    <row r="41" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="55">
-        <v>5015</v>
-      </c>
       <c r="B41" s="55">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C41" s="55">
         <f>B41*C4</f>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
       <c r="G41" s="30">
-        <v>2860133353</v>
+        <v>2860124541</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="30" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J41" s="30"/>
       <c r="K41" s="30" t="s">
         <v>32</v>
       </c>
       <c r="L41" s="58">
-        <v>0.27</v>
+        <v>10.06</v>
       </c>
       <c r="M41" s="58">
-        <f t="shared" si="1"/>
-        <v>6.48</v>
+        <f t="shared" ref="M41:M63" si="1">L41*C41</f>
+        <v>30.18</v>
       </c>
       <c r="N41" s="31"/>
     </row>
-    <row r="42" spans="1:14" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="55">
-        <v>5089</v>
+        <v>5015</v>
       </c>
       <c r="B42" s="55">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C42" s="55">
         <f>B42*C4</f>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D42" s="26"/>
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="30" t="s">
-        <v>51</v>
+      <c r="G42" s="30">
+        <v>2860133353</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="30" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="J42" s="30"/>
       <c r="K42" s="30" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="L42" s="58">
-        <v>18.62</v>
+        <v>0.27</v>
       </c>
       <c r="M42" s="58">
         <f t="shared" si="1"/>
-        <v>111.72</v>
+        <v>6.48</v>
       </c>
       <c r="N42" s="31"/>
     </row>
-    <row r="43" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="55">
-        <v>5301</v>
+        <v>5089</v>
       </c>
       <c r="B43" s="55">
         <v>2</v>
@@ -2531,192 +2528,190 @@
       <c r="D43" s="26"/>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
-      <c r="G43" s="26" t="s">
-        <v>14</v>
+      <c r="G43" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="H43" s="29"/>
-      <c r="I43" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="34" t="s">
-        <v>11</v>
+      <c r="I43" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="L43" s="58">
-        <v>0.45</v>
+        <v>18.62</v>
       </c>
       <c r="M43" s="58">
         <f t="shared" si="1"/>
-        <v>2.7</v>
+        <v>111.72</v>
       </c>
       <c r="N43" s="31"/>
     </row>
-    <row r="44" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="55">
-        <v>5307</v>
+        <v>5301</v>
       </c>
       <c r="B44" s="55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" s="55">
         <f>B44*C4</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="27"/>
       <c r="F44" s="27"/>
-      <c r="G44" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="36"/>
-      <c r="I44" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="J44" s="30"/>
-      <c r="K44" s="33" t="s">
-        <v>47</v>
+      <c r="G44" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="29"/>
+      <c r="I44" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="34" t="s">
+        <v>11</v>
       </c>
       <c r="L44" s="58">
-        <v>2.39</v>
+        <v>0.45</v>
       </c>
       <c r="M44" s="58">
         <f t="shared" si="1"/>
-        <v>28.68</v>
+        <v>2.7</v>
       </c>
       <c r="N44" s="31"/>
     </row>
-    <row r="45" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="55">
-        <v>5308</v>
+        <v>5307</v>
       </c>
       <c r="B45" s="55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C45" s="55">
         <f>B45*C4</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="J45" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="34" t="s">
-        <v>11</v>
+      <c r="G45" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="36"/>
+      <c r="I45" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="J45" s="30"/>
+      <c r="K45" s="33" t="s">
+        <v>47</v>
       </c>
       <c r="L45" s="58">
-        <v>9.15</v>
+        <v>2.39</v>
       </c>
       <c r="M45" s="58">
         <f t="shared" si="1"/>
-        <v>27.450000000000003</v>
+        <v>28.68</v>
       </c>
       <c r="N45" s="31"/>
     </row>
-    <row r="46" spans="1:14" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="55">
-        <v>5310</v>
+        <v>5308</v>
       </c>
       <c r="B46" s="55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C46" s="55">
         <f>B46*C4</f>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D46" s="26"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>94</v>
-      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="29"/>
       <c r="I46" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" s="30" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="J46" s="34" t="s">
+        <v>19</v>
       </c>
       <c r="K46" s="34" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="58">
-        <v>1.43</v>
+        <v>9.15</v>
       </c>
       <c r="M46" s="58">
         <f t="shared" si="1"/>
-        <v>25.74</v>
+        <v>27.450000000000003</v>
       </c>
       <c r="N46" s="31"/>
     </row>
-    <row r="47" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="55">
-        <v>5311</v>
+        <v>5310</v>
       </c>
       <c r="B47" s="55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C47" s="55">
         <f>B47*C4</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D47" s="26"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
       <c r="G47" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="30" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>13</v>
       </c>
       <c r="J47" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="K47" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="34" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="58">
-        <v>0.43</v>
+        <v>1.43</v>
       </c>
       <c r="M47" s="58">
         <f t="shared" si="1"/>
-        <v>2.58</v>
+        <v>25.74</v>
       </c>
       <c r="N47" s="31"/>
     </row>
-    <row r="48" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="55">
-        <v>5313</v>
+        <v>5311</v>
       </c>
       <c r="B48" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="55">
         <f>B48*C4</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="27"/>
       <c r="F48" s="27"/>
       <c r="G48" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H48" s="29"/>
       <c r="I48" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J48" s="30" t="s">
         <v>19</v>
@@ -2725,53 +2720,53 @@
         <v>11</v>
       </c>
       <c r="L48" s="58">
-        <v>2.66</v>
+        <v>0.43</v>
       </c>
       <c r="M48" s="58">
         <f t="shared" si="1"/>
+        <v>2.58</v>
+      </c>
+      <c r="N48" s="31"/>
+    </row>
+    <row r="49" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="55">
+        <v>5313</v>
+      </c>
+      <c r="B49" s="55">
+        <v>1</v>
+      </c>
+      <c r="C49" s="55">
+        <f>B49*C4</f>
+        <v>3</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="29"/>
+      <c r="I49" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="58">
+        <v>2.66</v>
+      </c>
+      <c r="M49" s="58">
+        <f t="shared" si="1"/>
         <v>7.98</v>
       </c>
-      <c r="N48" s="31"/>
-    </row>
-    <row r="49" spans="1:14" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="56">
+      <c r="N49" s="31"/>
+    </row>
+    <row r="50" spans="1:14" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="56">
         <v>5314</v>
-      </c>
-      <c r="B49" s="56">
-        <v>1</v>
-      </c>
-      <c r="C49" s="56">
-        <f>B49*C4</f>
-        <v>3</v>
-      </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="62"/>
-      <c r="I49" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49" s="63">
-        <v>7.4</v>
-      </c>
-      <c r="M49" s="63">
-        <f>L49*C49</f>
-        <v>22.200000000000003</v>
-      </c>
-      <c r="N49" s="64"/>
-    </row>
-    <row r="50" spans="1:14" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="56">
-        <v>5318</v>
       </c>
       <c r="B50" s="56">
         <v>1</v>
@@ -2784,11 +2779,11 @@
       <c r="E50" s="35"/>
       <c r="F50" s="35"/>
       <c r="G50" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H50" s="62"/>
       <c r="I50" s="33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J50" s="33" t="s">
         <v>22</v>
@@ -2797,17 +2792,17 @@
         <v>11</v>
       </c>
       <c r="L50" s="63">
-        <v>1.2</v>
+        <v>7.4</v>
       </c>
       <c r="M50" s="63">
-        <f t="shared" si="1"/>
-        <v>3.5999999999999996</v>
+        <f>L50*C50</f>
+        <v>22.200000000000003</v>
       </c>
       <c r="N50" s="64"/>
     </row>
-    <row r="51" spans="1:14" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="56">
-        <v>5320</v>
+        <v>5318</v>
       </c>
       <c r="B51" s="56">
         <v>1</v>
@@ -2820,11 +2815,11 @@
       <c r="E51" s="35"/>
       <c r="F51" s="35"/>
       <c r="G51" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H51" s="62"/>
       <c r="I51" s="33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J51" s="33" t="s">
         <v>22</v>
@@ -2833,89 +2828,89 @@
         <v>11</v>
       </c>
       <c r="L51" s="63">
-        <v>2.4300000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="M51" s="63">
         <f t="shared" si="1"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="N51" s="64"/>
+    </row>
+    <row r="52" spans="1:14" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="56">
+        <v>5320</v>
+      </c>
+      <c r="B52" s="56">
+        <v>1</v>
+      </c>
+      <c r="C52" s="56">
+        <f>B52*C4</f>
+        <v>3</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="62"/>
+      <c r="I52" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="63">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="M52" s="63">
+        <f t="shared" si="1"/>
         <v>7.2900000000000009</v>
       </c>
-      <c r="N51" s="64"/>
-    </row>
-    <row r="52" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="55">
+      <c r="N52" s="64"/>
+    </row>
+    <row r="53" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="55">
         <v>5321</v>
       </c>
-      <c r="B52" s="55">
+      <c r="B53" s="55">
         <v>2</v>
-      </c>
-      <c r="C52" s="55">
-        <f>B52*C4</f>
-        <v>6</v>
-      </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J52" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="L52" s="58">
-        <v>1.05</v>
-      </c>
-      <c r="M52" s="58">
-        <f t="shared" si="1"/>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="N52" s="31"/>
-    </row>
-    <row r="53" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="55">
-        <v>5323</v>
-      </c>
-      <c r="B53" s="55">
-        <v>1</v>
       </c>
       <c r="C53" s="55">
         <f>B53*C4</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D53" s="26"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="30" t="s">
-        <v>74</v>
+      <c r="G53" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="H53" s="29"/>
-      <c r="I53" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="J53" s="30" t="s">
+      <c r="I53" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K53" s="34" t="s">
         <v>11</v>
       </c>
       <c r="L53" s="58">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="M53" s="58">
         <f t="shared" si="1"/>
-        <v>4.1999999999999993</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="N53" s="31"/>
     </row>
-    <row r="54" spans="1:14" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="55">
-        <v>5324</v>
+        <v>5323</v>
       </c>
       <c r="B54" s="55">
         <v>1</v>
@@ -2925,16 +2920,14 @@
         <v>3</v>
       </c>
       <c r="D54" s="26"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
       <c r="G54" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="26" t="s">
-        <v>93</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H54" s="29"/>
       <c r="I54" s="30" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="J54" s="30" t="s">
         <v>10</v>
@@ -2943,17 +2936,17 @@
         <v>11</v>
       </c>
       <c r="L54" s="58">
-        <v>0.95</v>
+        <v>1.4</v>
       </c>
       <c r="M54" s="58">
         <f t="shared" si="1"/>
-        <v>2.8499999999999996</v>
+        <v>4.1999999999999993</v>
       </c>
       <c r="N54" s="31"/>
     </row>
-    <row r="55" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="55">
-        <v>5327</v>
+        <v>5324</v>
       </c>
       <c r="B55" s="55">
         <v>1</v>
@@ -2963,33 +2956,35 @@
         <v>3</v>
       </c>
       <c r="D55" s="26"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="26">
-        <v>108408</v>
-      </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J55" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K55" s="33" t="s">
-        <v>32</v>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="34" t="s">
+        <v>11</v>
       </c>
       <c r="L55" s="58">
-        <v>4.42</v>
+        <v>0.95</v>
       </c>
       <c r="M55" s="58">
         <f t="shared" si="1"/>
-        <v>13.26</v>
+        <v>2.8499999999999996</v>
       </c>
       <c r="N55" s="31"/>
     </row>
-    <row r="56" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="55">
-        <v>5328</v>
+        <v>5327</v>
       </c>
       <c r="B56" s="55">
         <v>1</v>
@@ -3001,29 +2996,31 @@
       <c r="D56" s="26"/>
       <c r="E56" s="27"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="30">
-        <v>2860105462</v>
+      <c r="G56" s="26">
+        <v>108408</v>
       </c>
       <c r="H56" s="29"/>
-      <c r="I56" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30" t="s">
+      <c r="I56" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K56" s="33" t="s">
         <v>32</v>
       </c>
       <c r="L56" s="58">
-        <v>2.97</v>
+        <v>4.42</v>
       </c>
       <c r="M56" s="58">
         <f t="shared" si="1"/>
-        <v>8.91</v>
+        <v>13.26</v>
       </c>
       <c r="N56" s="31"/>
     </row>
-    <row r="57" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="55">
-        <v>5336</v>
+        <v>5328</v>
       </c>
       <c r="B57" s="55">
         <v>1</v>
@@ -3035,31 +3032,29 @@
       <c r="D57" s="26"/>
       <c r="E57" s="27"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="26">
-        <v>120760</v>
+      <c r="G57" s="30">
+        <v>2860105462</v>
       </c>
       <c r="H57" s="29"/>
-      <c r="I57" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J57" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K57" s="33" t="s">
+      <c r="I57" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30" t="s">
         <v>32</v>
       </c>
       <c r="L57" s="58">
-        <v>2.4700000000000002</v>
+        <v>2.97</v>
       </c>
       <c r="M57" s="58">
         <f t="shared" si="1"/>
-        <v>7.41</v>
+        <v>8.91</v>
       </c>
       <c r="N57" s="31"/>
     </row>
-    <row r="58" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="55">
-        <v>5337</v>
+        <v>5336</v>
       </c>
       <c r="B58" s="55">
         <v>1</v>
@@ -3072,30 +3067,30 @@
       <c r="E58" s="27"/>
       <c r="F58" s="27"/>
       <c r="G58" s="26">
-        <v>120771</v>
+        <v>120760</v>
       </c>
       <c r="H58" s="29"/>
       <c r="I58" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="J58" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J58" s="26" t="s">
         <v>34</v>
       </c>
       <c r="K58" s="33" t="s">
         <v>32</v>
       </c>
       <c r="L58" s="58">
-        <v>3.19</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="M58" s="58">
         <f t="shared" si="1"/>
-        <v>9.57</v>
+        <v>7.41</v>
       </c>
       <c r="N58" s="31"/>
     </row>
-    <row r="59" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="55">
-        <v>5339</v>
+        <v>5337</v>
       </c>
       <c r="B59" s="55">
         <v>1</v>
@@ -3107,31 +3102,31 @@
       <c r="D59" s="26"/>
       <c r="E59" s="27"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="30" t="s">
-        <v>44</v>
+      <c r="G59" s="26">
+        <v>120771</v>
       </c>
       <c r="H59" s="29"/>
-      <c r="I59" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="J59" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="K59" s="30" t="s">
-        <v>47</v>
+      <c r="I59" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K59" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="L59" s="58">
-        <v>1.06</v>
+        <v>3.19</v>
       </c>
       <c r="M59" s="58">
         <f t="shared" si="1"/>
-        <v>3.18</v>
+        <v>9.57</v>
       </c>
       <c r="N59" s="31"/>
     </row>
-    <row r="60" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="55">
-        <v>5340</v>
+        <v>5339</v>
       </c>
       <c r="B60" s="55">
         <v>1</v>
@@ -3144,11 +3139,11 @@
       <c r="E60" s="27"/>
       <c r="F60" s="27"/>
       <c r="G60" s="30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H60" s="29"/>
       <c r="I60" s="30" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="J60" s="30" t="s">
         <v>46</v>
@@ -3165,9 +3160,9 @@
       </c>
       <c r="N60" s="31"/>
     </row>
-    <row r="61" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="55">
-        <v>5341</v>
+        <v>5340</v>
       </c>
       <c r="B61" s="55">
         <v>1</v>
@@ -3180,30 +3175,30 @@
       <c r="E61" s="27"/>
       <c r="F61" s="27"/>
       <c r="G61" s="30" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H61" s="29"/>
       <c r="I61" s="30" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J61" s="30" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="K61" s="30" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="L61" s="58">
-        <v>14.7</v>
+        <v>1.06</v>
       </c>
       <c r="M61" s="58">
         <f t="shared" si="1"/>
-        <v>44.099999999999994</v>
+        <v>3.18</v>
       </c>
       <c r="N61" s="31"/>
     </row>
-    <row r="62" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="56">
-        <v>5342</v>
+    <row r="62" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="55">
+        <v>5341</v>
       </c>
       <c r="B62" s="55">
         <v>1</v>
@@ -3216,107 +3211,143 @@
       <c r="E62" s="27"/>
       <c r="F62" s="27"/>
       <c r="G62" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H62" s="36"/>
+        <v>28</v>
+      </c>
+      <c r="H62" s="29"/>
       <c r="I62" s="30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J62" s="30" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="K62" s="30" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L62" s="58">
-        <v>1.17</v>
+        <v>14.7</v>
       </c>
       <c r="M62" s="58">
         <f t="shared" si="1"/>
+        <v>44.099999999999994</v>
+      </c>
+      <c r="N62" s="31"/>
+    </row>
+    <row r="63" spans="1:14" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="56">
+        <v>5342</v>
+      </c>
+      <c r="B63" s="55">
+        <v>1</v>
+      </c>
+      <c r="C63" s="55">
+        <f>B63*C4</f>
+        <v>3</v>
+      </c>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H63" s="36"/>
+      <c r="I63" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J63" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="K63" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L63" s="58">
+        <v>1.17</v>
+      </c>
+      <c r="M63" s="58">
+        <f t="shared" si="1"/>
         <v>3.51</v>
       </c>
-      <c r="N62" s="31"/>
-    </row>
-    <row r="63" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="47"/>
-    </row>
-    <row r="64" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N63" s="31"/>
+    </row>
+    <row r="64" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="47"/>
     </row>
-    <row r="65" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="47"/>
     </row>
-    <row r="66" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="47"/>
     </row>
-    <row r="67" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="47"/>
     </row>
-    <row r="68" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="47"/>
     </row>
-    <row r="69" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="47"/>
     </row>
-    <row r="70" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="47"/>
     </row>
-    <row r="71" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="47"/>
     </row>
-    <row r="72" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="47"/>
     </row>
-    <row r="73" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="47"/>
     </row>
-    <row r="74" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="47"/>
     </row>
-    <row r="75" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="47"/>
     </row>
-    <row r="76" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="47"/>
     </row>
-    <row r="77" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="47"/>
     </row>
-    <row r="78" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="47"/>
     </row>
-    <row r="79" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="47"/>
     </row>
-    <row r="80" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="47"/>
     </row>
-    <row r="81" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="47"/>
     </row>
-    <row r="82" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="47"/>
     </row>
-    <row r="83" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="47"/>
     </row>
-    <row r="84" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="47"/>
     </row>
-    <row r="85" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="47"/>
     </row>
-    <row r="86" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="47"/>
     </row>
-    <row r="87" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="47"/>
     </row>
-    <row r="88" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="47"/>
     </row>
-    <row r="89" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="47"/>
+    </row>
+    <row r="90" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="47"/>
     </row>
   </sheetData>
   <sortState ref="A10:K64">
@@ -3325,7 +3356,7 @@
   <mergeCells count="3">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.47" bottom="0.42" header="0.22" footer="0.35"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
